--- a/fuentes/contenidos/grado10/guion02/Solicitud_grAfica_MA_10_02_CO_REC210.xlsx
+++ b/fuentes/contenidos/grado10/guion02/Solicitud_grAfica_MA_10_02_CO_REC210.xlsx
@@ -1800,15 +1800,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>55563</xdr:colOff>
+      <xdr:colOff>1127125</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>34035</xdr:rowOff>
+      <xdr:rowOff>81660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>722312</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1801489</xdr:rowOff>
+      <xdr:rowOff>1849114</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1831,7 +1831,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16430626" y="2153348"/>
+          <a:off x="17502188" y="2200973"/>
           <a:ext cx="2674937" cy="1767454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2152,15 +2152,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>582434</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>407810</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171142</xdr:rowOff>
+      <xdr:colOff>407809</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2635251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2183,8 +2183,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="17851438"/>
-          <a:ext cx="3487560" cy="3163579"/>
+          <a:off x="16957497" y="17851439"/>
+          <a:ext cx="2905125" cy="2635250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2911,7 +2911,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
@@ -3541,7 +3541,7 @@
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="256.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG09</v>
